--- a/biology/Zoologie/Amolops_ricketti/Amolops_ricketti.xlsx
+++ b/biology/Zoologie/Amolops_ricketti/Amolops_ricketti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amolops ricketti est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amolops ricketti est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre entre 400 et 1 300 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre entre 400 et 1 300 m d'altitude :
 dans le Nord et le centre du Viêt Nam ;
 dans le Sud et l'Ouest de la République populaire de Chine dans les provinces du Fujian, du Guangdong, du Guangxi, du Guizhou, du Hubei, du Hunan, du Jiangxi, du Sichuan, du Yunnan, d'Anhui et du Zhejiang.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Boughey Rickett (1851–1943)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Boughey Rickett (1851–1943).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1899 : On a collection of reptiles and batrachians made by Mr. J. D. Latouche in N. W. Fokien, China. Proceedings of the Zoological Society of London, vol. 1899, p. 159-172 (texte intégral).</t>
         </is>
